--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7914.071283196984</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7914.071283196984</v>
+        <v>1574900.185356201</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14292.88478628063</v>
+        <v>866927.2267644384</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14292.88478628063</v>
+        <v>866927.2267644384</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035458430.799335</v>
+        <v>41689136.93195787</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9440.171067461126</v>
+        <v>945254.2298743969</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18325.26521253485</v>
+        <v>1795333.732098898</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27210.35935760856</v>
+        <v>2645413.2343234</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37038.04121070299</v>
+        <v>3444418.793697529</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46865.72306379741</v>
+        <v>4243424.353071657</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55850.64461374792</v>
+        <v>5093503.855296157</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65022.17407217863</v>
+        <v>5950335.170936574</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74159.77481997659</v>
+        <v>6800414.673161073</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83953.52796243386</v>
+        <v>7592668.41911946</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92984.12006490487</v>
+        <v>8434431.464636454</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101969.0416148554</v>
+        <v>9284510.966860957</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110953.9631648059</v>
+        <v>10134590.46908546</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119938.8847147564</v>
+        <v>10984669.97130997</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128991.7256460389</v>
+        <v>11822596.59762702</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138763.5418220266</v>
+        <v>12605576.47307662</v>
       </c>
     </row>
   </sheetData>
